--- a/original data/breast-cancer-wisconsin.xlsx
+++ b/original data/breast-cancer-wisconsin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tswo10/Documents/tobrienstudentonedrive/OneDrive - University of Brighton/MM702/CourseworkMM702-1/MM702/original data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82106B0E-61AB-9041-9D96-4019C3D0AFF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D99CDB3-5996-CB4B-817F-57E2F20BFBB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9260" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{491AA404-8A20-9D47-927F-3B701C475C0A}"/>
   </bookViews>
@@ -50,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
-  <si>
-    <t>?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>sample</t>
   </si>
@@ -443,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD28EF72-280B-3F46-BE4C-B66803118D96}">
   <dimension ref="A1:K700"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -457,37 +454,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1314,9 +1311,6 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" t="s">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>7</v>
       </c>
@@ -1909,9 +1903,6 @@
       <c r="F42">
         <v>6</v>
       </c>
-      <c r="G42" t="s">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>7</v>
       </c>
@@ -5374,9 +5365,6 @@
       <c r="F141">
         <v>1</v>
       </c>
-      <c r="G141" t="s">
-        <v>0</v>
-      </c>
       <c r="H141">
         <v>2</v>
       </c>
@@ -5584,9 +5572,6 @@
       <c r="F147">
         <v>2</v>
       </c>
-      <c r="G147" t="s">
-        <v>0</v>
-      </c>
       <c r="H147">
         <v>2</v>
       </c>
@@ -6039,9 +6024,6 @@
       <c r="F160">
         <v>3</v>
       </c>
-      <c r="G160" t="s">
-        <v>0</v>
-      </c>
       <c r="H160">
         <v>1</v>
       </c>
@@ -6249,9 +6231,6 @@
       <c r="F166">
         <v>2</v>
       </c>
-      <c r="G166" t="s">
-        <v>0</v>
-      </c>
       <c r="H166">
         <v>3</v>
       </c>
@@ -8734,9 +8713,6 @@
       <c r="F237">
         <v>2</v>
       </c>
-      <c r="G237" t="s">
-        <v>0</v>
-      </c>
       <c r="H237">
         <v>3</v>
       </c>
@@ -9224,9 +9200,6 @@
       <c r="F251">
         <v>2</v>
       </c>
-      <c r="G251" t="s">
-        <v>0</v>
-      </c>
       <c r="H251">
         <v>3</v>
       </c>
@@ -10134,9 +10107,6 @@
       <c r="F277">
         <v>2</v>
       </c>
-      <c r="G277" t="s">
-        <v>0</v>
-      </c>
       <c r="H277">
         <v>2</v>
       </c>
@@ -10729,9 +10699,6 @@
       <c r="F294">
         <v>2</v>
       </c>
-      <c r="G294" t="s">
-        <v>0</v>
-      </c>
       <c r="H294">
         <v>6</v>
       </c>
@@ -10799,9 +10766,6 @@
       <c r="F296">
         <v>2</v>
       </c>
-      <c r="G296" t="s">
-        <v>0</v>
-      </c>
       <c r="H296">
         <v>2</v>
       </c>
@@ -10904,9 +10868,6 @@
       <c r="F299">
         <v>2</v>
       </c>
-      <c r="G299" t="s">
-        <v>0</v>
-      </c>
       <c r="H299">
         <v>2</v>
       </c>
@@ -11534,9 +11495,6 @@
       <c r="F317">
         <v>7</v>
       </c>
-      <c r="G317" t="s">
-        <v>0</v>
-      </c>
       <c r="H317">
         <v>4</v>
       </c>
@@ -11744,9 +11702,6 @@
       <c r="F323">
         <v>2</v>
       </c>
-      <c r="G323" t="s">
-        <v>0</v>
-      </c>
       <c r="H323">
         <v>3</v>
       </c>
@@ -14894,9 +14849,6 @@
       <c r="F413">
         <v>1</v>
       </c>
-      <c r="G413" t="s">
-        <v>0</v>
-      </c>
       <c r="H413">
         <v>2</v>
       </c>
@@ -22103,9 +22055,6 @@
       </c>
       <c r="F619">
         <v>1</v>
-      </c>
-      <c r="G619" t="s">
-        <v>0</v>
       </c>
       <c r="H619">
         <v>1</v>
